--- a/Development/Shiny/data/Dead Dogs Live Concerts.xlsx
+++ b/Development/Shiny/data/Dead Dogs Live Concerts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PC3\Operation Ultra\09 - R\18 - Blog &amp; Projects\RShiny\Apps\Dead Dogs Analytics\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC3\Operation Ultra\09 - R\Projects\Dead Dogs Analytics\Dead Dogs Analytics ShinyApp\Production\Shiny\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC945800-2D76-44FC-BCE5-9E71488A7D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D72283-73A2-4DDD-8D60-0F9313AFA0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>Id</t>
   </si>
@@ -287,6 +287,21 @@
   </si>
   <si>
     <t>Barona Beer Festival</t>
+  </si>
+  <si>
+    <t>Melegnano (MI)</t>
+  </si>
+  <si>
+    <t>Musicolepsia</t>
+  </si>
+  <si>
+    <t>Plug &amp; Play Jam Session (Apr 6, 2023)</t>
+  </si>
+  <si>
+    <t>06/04/2023</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="300" height="169" src="https://www.youtube.com/embed/playlist?list=PLhIw1_0YGPEStVIUkVyv2ZB4PlUeK02QW"&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
@@ -335,10 +350,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,23 +633,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="129.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="129.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -661,7 +675,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -684,7 +698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -707,7 +721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -733,7 +747,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -759,7 +773,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -785,7 +799,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -811,7 +825,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -837,7 +851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -863,7 +877,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -889,7 +903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -915,7 +929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -937,11 +951,11 @@
       <c r="G12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -963,11 +977,11 @@
       <c r="G13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -990,7 +1004,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>78</v>
       </c>
@@ -1011,6 +1025,32 @@
       </c>
       <c r="G15" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <v>45.357970954483299</v>
+      </c>
+      <c r="E16">
+        <v>9.3146710101658599</v>
+      </c>
+      <c r="F16">
+        <v>2023</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1028,34 +1068,34 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>

--- a/Development/Shiny/data/Dead Dogs Live Concerts.xlsx
+++ b/Development/Shiny/data/Dead Dogs Live Concerts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC3\Operation Ultra\09 - R\Projects\Dead Dogs Analytics\Dead Dogs Analytics ShinyApp\Production\Shiny\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC3\Operation Ultra\09 - R\Projects\Dead Dogs Analytics\Dead Dogs Analytics ShinyApp\Development\Shiny\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D72283-73A2-4DDD-8D60-0F9313AFA0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F54808-589E-4E4C-8568-A146415E631B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>Id</t>
   </si>
@@ -302,6 +302,30 @@
   </si>
   <si>
     <t>&lt;iframe width="300" height="169" src="https://www.youtube.com/embed/playlist?list=PLhIw1_0YGPEStVIUkVyv2ZB4PlUeK02QW"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Plug &amp; Play Jam Session (Dic 21, 2023)</t>
+  </si>
+  <si>
+    <t>Plug &amp; Play Jam Session (Sep 21, 2023)</t>
+  </si>
+  <si>
+    <t>Plug &amp; Play Jam Session (May 25, 2023)</t>
+  </si>
+  <si>
+    <t>25/05/2023</t>
+  </si>
+  <si>
+    <t>21/09/2023</t>
+  </si>
+  <si>
+    <t>21/12/2023</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="300" height="169" src="https://www.youtube.com/embed/playlist?list=PLhIw1_0YGPESGECtLx3YRkd98o0F14NG6"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="300" height="169" src="https://www.youtube.com/embed/playlist?list=PLhIw1_0YGPESy7x4zc-oaUZ1hjTUfchGk"&gt;&lt;/iframe&gt;</t>
   </si>
 </sst>
 </file>
@@ -330,12 +354,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -350,9 +380,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,15 +665,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.44140625" customWidth="1"/>
@@ -1051,6 +1083,81 @@
       </c>
       <c r="H16" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>45.357970954483299</v>
+      </c>
+      <c r="E17">
+        <v>9.3146710101658599</v>
+      </c>
+      <c r="F17">
+        <v>2023</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18">
+        <v>45.357970954483299</v>
+      </c>
+      <c r="E18">
+        <v>9.3146710101658599</v>
+      </c>
+      <c r="F18">
+        <v>2023</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>45.357970954483299</v>
+      </c>
+      <c r="E19">
+        <v>9.3146710101658599</v>
+      </c>
+      <c r="F19">
+        <v>2023</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Development/Shiny/data/Dead Dogs Live Concerts.xlsx
+++ b/Development/Shiny/data/Dead Dogs Live Concerts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC3\Operation Ultra\09 - R\Projects\Dead Dogs Analytics\Dead Dogs Analytics ShinyApp\Development\Shiny\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F54808-589E-4E4C-8568-A146415E631B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389A9B31-5D34-4E5C-89B3-C17E10DEF582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,18 +354,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -380,10 +374,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -667,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1105,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>85</v>
       </c>
       <c r="B18" t="s">

--- a/Development/Shiny/data/Dead Dogs Live Concerts.xlsx
+++ b/Development/Shiny/data/Dead Dogs Live Concerts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC3\Operation Ultra\09 - R\Projects\Dead Dogs Analytics\Dead Dogs Analytics ShinyApp\Development\Shiny\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC3\Operation Ultra\09 - R\Projects\Dead Dogs Analytics\Dead Dogs Analytics ShinyApp\Production\Shiny\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389A9B31-5D34-4E5C-89B3-C17E10DEF582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A072B9BA-1124-4645-AC05-AFD36E40C345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Poi nel pallino e nella tabella evidenzio la data esatta</t>
         </r>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
   <si>
     <t>Id</t>
   </si>
@@ -133,9 +133,6 @@
     <t>23/09/2016</t>
   </si>
   <si>
-    <t>11/06/2016</t>
-  </si>
-  <si>
     <t>18/12/2016</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>31/10/2018</t>
   </si>
   <si>
-    <t>02/12/2018</t>
-  </si>
-  <si>
     <t>Martina's 18th Birthday Party</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>Cristina's 50th Birthday Party</t>
   </si>
   <si>
-    <t>02/11/2019</t>
-  </si>
-  <si>
     <t>Milano</t>
   </si>
   <si>
@@ -298,34 +289,73 @@
     <t>Plug &amp; Play Jam Session (Apr 6, 2023)</t>
   </si>
   <si>
-    <t>06/04/2023</t>
-  </si>
-  <si>
     <t>&lt;iframe width="300" height="169" src="https://www.youtube.com/embed/playlist?list=PLhIw1_0YGPEStVIUkVyv2ZB4PlUeK02QW"&gt;&lt;/iframe&gt;</t>
   </si>
   <si>
+    <t>Plug &amp; Play Jam Session (May 25, 2023)</t>
+  </si>
+  <si>
+    <t>25/05/2023</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="300" height="169" src="https://www.youtube.com/embed/playlist?list=PLhIw1_0YGPESGECtLx3YRkd98o0F14NG6"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Plug &amp; Play Jam Session (Sep 21, 2023)</t>
+  </si>
+  <si>
+    <t>21/09/2023</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="300" height="169" src="https://www.youtube.com/embed/playlist?list=PLhIw1_0YGPESy7x4zc-oaUZ1hjTUfchGk"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>Plug &amp; Play Jam Session (Dic 21, 2023)</t>
   </si>
   <si>
-    <t>Plug &amp; Play Jam Session (Sep 21, 2023)</t>
-  </si>
-  <si>
-    <t>Plug &amp; Play Jam Session (May 25, 2023)</t>
-  </si>
-  <si>
-    <t>25/05/2023</t>
-  </si>
-  <si>
-    <t>21/09/2023</t>
-  </si>
-  <si>
     <t>21/12/2023</t>
   </si>
   <si>
-    <t>&lt;iframe width="300" height="169" src="https://www.youtube.com/embed/playlist?list=PLhIw1_0YGPESGECtLx3YRkd98o0F14NG6"&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;iframe width="300" height="169" src="https://www.youtube.com/embed/playlist?list=PLhIw1_0YGPESy7x4zc-oaUZ1hjTUfchGk"&gt;&lt;/iframe&gt;</t>
+    <t>18/04/2024</t>
+  </si>
+  <si>
+    <t>Plug &amp; Play Jam Session (Apr 18, 2024)</t>
+  </si>
+  <si>
+    <t>Camilla's 30th Birthday Party</t>
+  </si>
+  <si>
+    <t>Plug &amp; Play Jam Session (Feb 08, 2024)</t>
+  </si>
+  <si>
+    <t>Tucci's 50th Birthday Party</t>
+  </si>
+  <si>
+    <t>13/01/2024</t>
+  </si>
+  <si>
+    <t>Loft Macaubas</t>
+  </si>
+  <si>
+    <t>Plug &amp; Play Jam Session (Mar 28, 2024)</t>
+  </si>
+  <si>
+    <t>28/03/2024</t>
+  </si>
+  <si>
+    <t>Oratory of San Giuseppe Calasanzio Church</t>
+  </si>
+  <si>
+    <t>Plug &amp; Play Jam Session (May 23, 2024)</t>
+  </si>
+  <si>
+    <t>23/05/2024</t>
+  </si>
+  <si>
+    <t>Milano Civil Week 2024 (May 11, 2024)</t>
+  </si>
+  <si>
+    <t>Centro Polifunzionale - Auditorium</t>
   </si>
 </sst>
 </file>
@@ -345,7 +375,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -374,10 +404,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,91 +689,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="129.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="120.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>45.419184000000001</v>
+        <v>45.419120249999999</v>
       </c>
       <c r="E2">
-        <v>9.2542539999999995</v>
+        <v>9.2543481530000005</v>
       </c>
       <c r="F2">
         <v>2014</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>45.419184000000001</v>
+        <v>45.419120249999999</v>
       </c>
       <c r="E3">
-        <v>9.2542539999999995</v>
+        <v>9.2543481530000005</v>
       </c>
       <c r="F3">
         <v>2015</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -754,22 +786,22 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>45.326124999999998</v>
+        <v>45.326261619999997</v>
       </c>
       <c r="E4">
-        <v>9.2588150000000002</v>
+        <v>9.2590233059999996</v>
       </c>
       <c r="F4">
         <v>2016</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
+      <c r="G4" s="3">
+        <v>42680</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -783,154 +815,154 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>45.370282000000003</v>
+        <v>45.37011021</v>
       </c>
       <c r="E5">
-        <v>9.3232049999999997</v>
+        <v>9.3232114849999999</v>
       </c>
       <c r="F5">
         <v>2016</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
       <c r="D6">
-        <v>45.432414000000001</v>
+        <v>45.432398329999998</v>
       </c>
       <c r="E6">
-        <v>9.3781049999999997</v>
+        <v>9.3784434000000001</v>
       </c>
       <c r="F6">
         <v>2016</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
+      <c r="G6" t="s">
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
       <c r="D7">
-        <v>45.468432</v>
+        <v>45.468410630000001</v>
       </c>
       <c r="E7">
-        <v>9.0554070000000007</v>
+        <v>9.05555105</v>
       </c>
       <c r="F7">
         <v>2017</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>38</v>
+      <c r="G7" t="s">
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>45.432414000000001</v>
+        <v>45.432398329999998</v>
       </c>
       <c r="E8">
-        <v>9.3781049999999997</v>
+        <v>9.3784434000000001</v>
       </c>
       <c r="F8">
         <v>2017</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
+      <c r="G8" t="s">
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>45.432414000000001</v>
+        <v>45.432398329999998</v>
       </c>
       <c r="E9">
-        <v>9.3781049999999997</v>
+        <v>9.3784434000000001</v>
       </c>
       <c r="F9">
         <v>2018</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>44</v>
+      <c r="G9" t="s">
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>45.432414000000001</v>
+        <v>45.432398329999998</v>
       </c>
       <c r="E10">
-        <v>9.3781049999999997</v>
+        <v>9.3784434000000001</v>
       </c>
       <c r="F10">
         <v>2018</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>45</v>
+      <c r="G10" s="3">
+        <v>43143</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -939,218 +971,379 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>45.370282000000003</v>
+        <v>45.37011021</v>
       </c>
       <c r="E11">
-        <v>9.3232049999999997</v>
+        <v>9.3232114849999999</v>
       </c>
       <c r="F11">
         <v>2019</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>47</v>
+      <c r="G11" t="s">
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12">
-        <v>45.468736999999997</v>
+        <v>45.46860521</v>
       </c>
       <c r="E12">
-        <v>9.1240249999999996</v>
+        <v>9.1240407950000009</v>
       </c>
       <c r="F12">
         <v>2019</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>49</v>
+      <c r="G12" s="3">
+        <v>43507</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>45.432414000000001</v>
+        <v>45.432398329999998</v>
       </c>
       <c r="E13">
-        <v>9.3781049999999997</v>
+        <v>9.3784434000000001</v>
       </c>
       <c r="F13">
         <v>2019</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>63</v>
+      <c r="G13" t="s">
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>45.500714000000002</v>
+        <v>45.500062939999999</v>
       </c>
       <c r="E14">
-        <v>9.1428449999999994</v>
+        <v>9.1431463179999994</v>
       </c>
       <c r="F14">
         <v>2020</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>72</v>
+      <c r="G14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>45.437164000000003</v>
+        <v>45.435262739999999</v>
       </c>
       <c r="E15">
-        <v>9.143319</v>
+        <v>9.1418859779999995</v>
       </c>
       <c r="F15">
         <v>2020</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>77</v>
+      <c r="G15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16">
-        <v>45.357970954483299</v>
+        <v>45.357970950000002</v>
       </c>
       <c r="E16">
-        <v>9.3146710101658599</v>
+        <v>9.3146710099999996</v>
       </c>
       <c r="F16">
         <v>2023</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>82</v>
+      <c r="G16" s="3">
+        <v>45081</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17">
-        <v>45.357970954483299</v>
+        <v>45.357970950000002</v>
       </c>
       <c r="E17">
-        <v>9.3146710101658599</v>
+        <v>9.3146710099999996</v>
       </c>
       <c r="F17">
         <v>2023</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>87</v>
+      <c r="G17" t="s">
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18">
-        <v>45.357970954483299</v>
+        <v>45.357970950000002</v>
       </c>
       <c r="E18">
-        <v>9.3146710101658599</v>
+        <v>9.3146710099999996</v>
       </c>
       <c r="F18">
         <v>2023</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>88</v>
+      <c r="G18" t="s">
+        <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>84</v>
+      <c r="A19" t="s">
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D19">
-        <v>45.357970954483299</v>
+        <v>45.357970950000002</v>
       </c>
       <c r="E19">
-        <v>9.3146710101658599</v>
+        <v>9.3146710099999996</v>
       </c>
       <c r="F19">
         <v>2023</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20">
+        <v>45.471760840000002</v>
+      </c>
+      <c r="E20">
+        <v>9.1244193019999997</v>
+      </c>
+      <c r="F20">
+        <v>2024</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>45.357970950000002</v>
+      </c>
+      <c r="E21">
+        <v>9.3146710099999996</v>
+      </c>
+      <c r="F21">
+        <v>2024</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22">
+        <v>45.446589500000002</v>
+      </c>
+      <c r="E22">
+        <v>9.1520767789999997</v>
+      </c>
+      <c r="F22">
+        <v>2024</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>45.357970950000002</v>
+      </c>
+      <c r="E23">
+        <v>9.3146710099999996</v>
+      </c>
+      <c r="F23">
+        <v>2024</v>
+      </c>
+      <c r="G23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24">
+        <v>45.357970950000002</v>
+      </c>
+      <c r="E24">
+        <v>9.3146710099999996</v>
+      </c>
+      <c r="F24">
+        <v>2024</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25">
+        <v>45.40671845</v>
+      </c>
+      <c r="E25">
+        <v>9.2637207460000006</v>
+      </c>
+      <c r="F25">
+        <v>2024</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <v>45.357970950000002</v>
+      </c>
+      <c r="E26">
+        <v>9.3146710099999996</v>
+      </c>
+      <c r="F26">
+        <v>2024</v>
+      </c>
+      <c r="G26" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
